--- a/xls/final.xlsx
+++ b/xls/final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\Spring2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\temp\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE4FE8-1365-4145-8398-329DEEE01F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9761B31-8FB1-4D4D-A712-EAB348D6B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{4CEAC677-ADE4-4510-AF88-8F76F8AE3055}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="s">Sheet1!$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,8 +42,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith Lewis</author>
+  </authors>
+  <commentList>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{F02F451E-A19C-4A67-92AA-04E848FE9728}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>put value using discrete distribution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{5DB3A5FB-E4E6-4513-8FE1-2576C7CD74E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>f exp(s X)/mgf(s)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{121D42B5-0271-4D76-B9E5-997530FAEAEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Use xllmonte</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -104,20 +165,20 @@
     <t>X</t>
   </si>
   <si>
-    <t>fe^{sX}/mgf(s)</t>
-  </si>
-  <si>
     <t>payoff</t>
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -131,6 +192,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,127 +515,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.2532762003931729E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2532762003931729E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98615284832951722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98615284832951722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,11 +2055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938476C7-3676-4B9E-BB8B-45CB19F20BAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938476C7-3676-4B9E-BB8B-45CB19F20BAF}">
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2080,7 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.DISTRIBUTION.DISCRETE(_xlfn.ANCHORARRAY(B5),_xlfn.ANCHORARRAY(C5),TRUE)</f>
-        <v>2431110386912</v>
+        <v>1450516229312</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -2103,9 +2177,9 @@
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" t="e" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">_xll.DISTRIBUTION.DISCRETE_INV(discrete,RAND(),s)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -2125,7 +2199,7 @@
         <v>2.8716559816001779E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -2145,7 +2219,11 @@
         <v>3.5930319112925789E-2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <f>MAX(k - J7,0)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -2165,7 +2243,7 @@
         <v>4.4565462758542999E-2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -2603,5 +2681,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xls/final.xlsx
+++ b/xls/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\temp\Spring2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\final\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9761B31-8FB1-4D4D-A712-EAB348D6B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF76056-C196-4A9F-8605-D8F77F9F935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{4CEAC677-ADE4-4510-AF88-8F76F8AE3055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4CEAC677-ADE4-4510-AF88-8F76F8AE3055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="s">Sheet1!$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,20 +49,6 @@
     <author>Keith Lewis</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{F02F451E-A19C-4A67-92AA-04E848FE9728}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>put value using discrete distribution</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J7" authorId="0" shapeId="0" xr:uid="{5DB3A5FB-E4E6-4513-8FE1-2576C7CD74E9}">
       <text>
         <r>
@@ -105,7 +92,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -141,9 +128,6 @@
     <t>discrete</t>
   </si>
   <si>
-    <t>disrete.cdf</t>
-  </si>
-  <si>
     <t>normal.cdf</t>
   </si>
   <si>
@@ -172,6 +156,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>discrete.cdf</t>
   </si>
 </sst>
 </file>
@@ -359,7 +346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>disrete.cdf</c:v>
+                  <c:v>discrete.cdf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,127 +502,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.2532762003931729E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.2532762003931729E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.4422556087821578E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.4422556087821578E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.4422556087821578E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.4422556087821578E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.4422556087821578E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.4422556087821578E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.14717112679315095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.14717112679315095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.14717112679315095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.14717112679315095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.14717112679315095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.14717112679315095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.33872063122737511</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.33872063122737511</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.33872063122737511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.33872063122737511</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.33872063122737511</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.33872063122737511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.58358718752967964</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.80096510423053457</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.80096510423053457</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.80096510423053457</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.80096510423053457</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.80096510423053457</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.80096510423053457</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.93329091643575146</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.93329091643575146</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.93329091643575146</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.93329091643575146</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.93329091643575146</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.93329091643575146</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.98615284832951722</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.98615284832951722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,19 +2043,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938476C7-3676-4B9E-BB8B-45CB19F20BAF}">
-  <dimension ref="B2:K45"/>
+  <dimension ref="B2:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,18 +2068,18 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.DISTRIBUTION.DISCRETE(_xlfn.ANCHORARRAY(B5),_xlfn.ANCHORARRAY(C5),TRUE)</f>
-        <v>1450516229312</v>
+        <v>2164478882416</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2100,13 +2088,13 @@
         <v>0.1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2117,19 +2105,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" cm="1">
         <f t="array" ref="B5:B15">_xll.ARRAY.SEQUENCE(0,n)</f>
         <v>0</v>
@@ -2144,21 +2132,25 @@
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5:F45">_xlfn.MAP(_xlfn.ANCHORARRAY(E5),_xlfn.LAMBDA(_xlpm.x,_xll.DISTRIBUTION.CDF(discrete,_xlpm.x,s)))</f>
-        <v>0</v>
+        <v>8.2532762003931729E-3</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5:G45">_xlfn.NORM.S.DIST(_xlfn.ANCHORARRAY(E5) - s,TRUE)</f>
         <v>1.7864420562816546E-2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">_xll.BLACK.PUT.VALUE(f, s, k, discrete)</f>
+        <v>3.9459687470320333</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">_xll.BLACK.PUT.VALUE(f, s, k, _xll.DISTRIBUTION.NORMAL())</f>
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2169,20 +2161,28 @@
         <v>-1.9</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8.2532762003931729E-3</v>
       </c>
       <c r="G6">
         <v>2.2750131948179191E-2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" aca="1" ref="J6" ca="1">_xll.DISTRIBUTION.DISCRETE_INV(discrete,RAND(),s)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">_xll.DISTRIBUTION.DISCRETE_INV(discrete,RAND(),0)</f>
+        <v>-0.63245553203367699</v>
+      </c>
+      <c r="K6">
+        <f t="array" aca="1" ref="K6:L6" ca="1">_xll.MONTE.STDEV(J6)</f>
+        <v>-5.7552600783953344E-3</v>
+      </c>
+      <c r="L6">
+        <f ca="1"/>
+        <v>0.99516763473101377</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2193,16 +2193,28 @@
         <v>-1.8</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4.4422556087821578E-2</v>
       </c>
       <c r="G7">
         <v>2.8716559816001779E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">f*EXP(s*J6)/_xll.DISTRIBUTION.MGF(discrete,s)</f>
+        <v>93.403186924116895</v>
+      </c>
+      <c r="K7">
+        <f t="array" aca="1" ref="K7:L7" ca="1">_xll.MONTE.STDEV(J7)</f>
+        <v>99.937706098085513</v>
+      </c>
+      <c r="L7">
+        <f ca="1"/>
+        <v>9.9661813993917203</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2213,20 +2225,20 @@
         <v>-1.7</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4.4422556087821578E-2</v>
       </c>
       <c r="G8">
         <v>3.5930319112925789E-2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8">
-        <f>MAX(k - J7,0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+        <f ca="1">MAX(k - J7,0)</f>
+        <v>6.5968130758831052</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -2237,16 +2249,24 @@
         <v>-1.6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4.4422556087821578E-2</v>
       </c>
       <c r="G9">
         <v>4.4565462758542999E-2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <f t="array" aca="1" ref="J9:K9" ca="1">_xll.MONTE.STDEV(J8)</f>
+        <v>3.9568605283180243</v>
+      </c>
+      <c r="K9">
+        <f ca="1"/>
+        <v>5.5351333842671142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -2257,13 +2277,13 @@
         <v>-1.5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4.4422556087821578E-2</v>
       </c>
       <c r="G10">
         <v>5.4799291699557967E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>6</v>
       </c>
@@ -2274,13 +2294,13 @@
         <v>-1.4</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4.4422556087821578E-2</v>
       </c>
       <c r="G11">
         <v>6.6807201268858057E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>7</v>
       </c>
@@ -2291,13 +2311,13 @@
         <v>-1.2999999999999998</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>4.4422556087821578E-2</v>
       </c>
       <c r="G12">
         <v>8.0756659233771053E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>8</v>
       </c>
@@ -2308,13 +2328,13 @@
         <v>-1.2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.14717112679315095</v>
       </c>
       <c r="G13">
         <v>9.6800484585610316E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>9</v>
       </c>
@@ -2325,13 +2345,13 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.14717112679315095</v>
       </c>
       <c r="G14">
         <v>0.11506967022170821</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>10</v>
       </c>
@@ -2342,18 +2362,18 @@
         <v>-1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.14717112679315095</v>
       </c>
       <c r="G15">
         <v>0.13566606094638264</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>-0.89999999999999991</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.14717112679315095</v>
       </c>
       <c r="G16">
         <v>0.15865525393145713</v>
@@ -2364,7 +2384,7 @@
         <v>-0.79999999999999982</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.14717112679315095</v>
       </c>
       <c r="G17">
         <v>0.18406012534675956</v>
@@ -2375,7 +2395,7 @@
         <v>-0.7</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.14717112679315095</v>
       </c>
       <c r="G18">
         <v>0.21185539858339666</v>
@@ -2386,7 +2406,7 @@
         <v>-0.59999999999999987</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.33872063122737511</v>
       </c>
       <c r="G19">
         <v>0.24196365222307303</v>
@@ -2397,7 +2417,7 @@
         <v>-0.5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.33872063122737511</v>
       </c>
       <c r="G20">
         <v>0.27425311775007355</v>
@@ -2408,7 +2428,7 @@
         <v>-0.39999999999999991</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.33872063122737511</v>
       </c>
       <c r="G21">
         <v>0.30853753872598688</v>
@@ -2419,7 +2439,7 @@
         <v>-0.29999999999999982</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.33872063122737511</v>
       </c>
       <c r="G22">
         <v>0.34457825838967593</v>
@@ -2430,7 +2450,7 @@
         <v>-0.19999999999999996</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.33872063122737511</v>
       </c>
       <c r="G23">
         <v>0.38208857781104738</v>
@@ -2441,7 +2461,7 @@
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.33872063122737511</v>
       </c>
       <c r="G24">
         <v>0.42074029056089701</v>
@@ -2452,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G25">
         <v>0.46017216272297101</v>
@@ -2463,7 +2483,7 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G26">
         <v>0.5</v>
@@ -2474,7 +2494,7 @@
         <v>0.20000000000000018</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G27">
         <v>0.5398278372770291</v>
@@ -2485,7 +2505,7 @@
         <v>0.30000000000000027</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G28">
         <v>0.57925970943910321</v>
@@ -2496,7 +2516,7 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G29">
         <v>0.61791142218895279</v>
@@ -2507,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G30">
         <v>0.65542174161032429</v>
@@ -2518,7 +2538,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.58358718752967964</v>
       </c>
       <c r="G31">
         <v>0.69146246127401312</v>
@@ -2529,7 +2549,7 @@
         <v>0.70000000000000018</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.80096510423053457</v>
       </c>
       <c r="G32">
         <v>0.72574688224992645</v>
@@ -2540,7 +2560,7 @@
         <v>0.80000000000000027</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.80096510423053457</v>
       </c>
       <c r="G33">
         <v>0.75803634777692719</v>
@@ -2551,7 +2571,7 @@
         <v>0.90000000000000036</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.80096510423053457</v>
       </c>
       <c r="G34">
         <v>0.78814460141660347</v>
@@ -2562,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.80096510423053457</v>
       </c>
       <c r="G35">
         <v>0.81593987465324047</v>
@@ -2573,7 +2593,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.80096510423053457</v>
       </c>
       <c r="G36">
         <v>0.84134474606854304</v>
@@ -2584,7 +2604,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.80096510423053457</v>
       </c>
       <c r="G37">
         <v>0.86433393905361733</v>
@@ -2595,7 +2615,7 @@
         <v>1.3000000000000003</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.93329091643575146</v>
       </c>
       <c r="G38">
         <v>0.88493032977829178</v>
@@ -2606,7 +2626,7 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.93329091643575146</v>
       </c>
       <c r="G39">
         <v>0.9031995154143897</v>
@@ -2617,7 +2637,7 @@
         <v>1.5</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.93329091643575146</v>
       </c>
       <c r="G40">
         <v>0.91924334076622893</v>
@@ -2628,7 +2648,7 @@
         <v>1.6</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.93329091643575146</v>
       </c>
       <c r="G41">
         <v>0.93319279873114191</v>
@@ -2639,7 +2659,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.93329091643575146</v>
       </c>
       <c r="G42">
         <v>0.94520070830044201</v>
@@ -2650,7 +2670,7 @@
         <v>1.8000000000000003</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.93329091643575146</v>
       </c>
       <c r="G43">
         <v>0.95543453724145699</v>
@@ -2661,7 +2681,7 @@
         <v>1.9000000000000004</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.98615284832951722</v>
       </c>
       <c r="G44">
         <v>0.96406968088707423</v>
@@ -2672,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.98615284832951722</v>
       </c>
       <c r="G45">
         <v>0.97128344018399815</v>
